--- a/results/pvalue_SIDER_rare_pathway_AUROC.xlsx
+++ b/results/pvalue_SIDER_rare_pathway_AUROC.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.337</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.688</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.289</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.253</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>13.713</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.432</t>
+          <t>13.34</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.223</t>
+          <t>16.752</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.333</t>
+          <t>9.588</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.264</t>
+          <t>0.152</t>
         </is>
       </c>
     </row>
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4.803</t>
+          <t>4.808</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3.624</t>
+          <t>3.629</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.302</t>
+          <t>5.315</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.969</t>
+          <t>4.981</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.297</t>
+          <t>1.768</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
